--- a/state_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
+++ b/state_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U384"/>
+  <dimension ref="A1:U401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2563,7 +2563,7 @@
         <v>0.03475</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0418911704367948</v>
+        <v>0.0419002617283696</v>
       </c>
       <c r="H27" t="n">
         <v>0.143341035226019</v>
@@ -2644,7 +2644,7 @@
         <v>0.03475</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0418911704367948</v>
+        <v>0.0419002617283696</v>
       </c>
       <c r="H28" t="n">
         <v>0.143341035226019</v>
@@ -3284,7 +3284,7 @@
         <v>0.03475</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0435241463612563</v>
+        <v>0.0435332376528311</v>
       </c>
       <c r="H36" t="n">
         <v>0.221515326451422</v>
@@ -3365,7 +3365,7 @@
         <v>0.03475</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0435241463612563</v>
+        <v>0.0435332376528311</v>
       </c>
       <c r="H37" t="n">
         <v>0.221515326451422</v>
@@ -4005,7 +4005,7 @@
         <v>0.0421</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0477704591121444</v>
+        <v>0.0477795504037192</v>
       </c>
       <c r="H45" t="n">
         <v>0.221515326451422</v>
@@ -4086,7 +4086,7 @@
         <v>0.0421</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0477704591121444</v>
+        <v>0.0477795504037192</v>
       </c>
       <c r="H46" t="n">
         <v>0.221515326451422</v>
@@ -4726,7 +4726,7 @@
         <v>0.04486</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0494168158417732</v>
+        <v>0.0494262206261609</v>
       </c>
       <c r="H54" t="n">
         <v>0.221515326451422</v>
@@ -4807,7 +4807,7 @@
         <v>0.04486</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0494168158417732</v>
+        <v>0.0494262206261609</v>
       </c>
       <c r="H55" t="n">
         <v>0.221515326451422</v>
@@ -5601,7 +5601,7 @@
         <v>0.04678</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0498236465914615</v>
+        <v>0.0498332163720666</v>
       </c>
       <c r="H65" t="n">
         <v>0.221515326451422</v>
@@ -5682,7 +5682,7 @@
         <v>0.04678</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0498236465914615</v>
+        <v>0.0498332163720666</v>
       </c>
       <c r="H66" t="n">
         <v>0.221515326451422</v>
@@ -8858,7 +8858,7 @@
         <v>0.28</v>
       </c>
       <c r="G106" t="n">
-        <v>0.367826384046058</v>
+        <v>0.367721786559556</v>
       </c>
       <c r="H106" t="n">
         <v>3.2</v>
@@ -9101,13 +9101,13 @@
         <v>365</v>
       </c>
       <c r="G109" t="n">
-        <v>1413.16646286749</v>
+        <v>1350.83166172185</v>
       </c>
       <c r="H109" t="n">
         <v>15500</v>
       </c>
       <c r="I109" t="n">
-        <v>6615.85172</v>
+        <v>5365</v>
       </c>
       <c r="J109" t="n">
         <v>40.6779661016949</v>
@@ -9122,7 +9122,7 @@
         <v>2197.4</v>
       </c>
       <c r="N109" t="n">
-        <v>5068</v>
+        <v>4490</v>
       </c>
       <c r="O109" t="n">
         <v>1792183</v>
@@ -9186,13 +9186,13 @@
         <v>365</v>
       </c>
       <c r="G110" t="n">
-        <v>1413.16646286749</v>
+        <v>1350.83166172185</v>
       </c>
       <c r="H110" t="n">
         <v>15500</v>
       </c>
       <c r="I110" t="n">
-        <v>6615.85172</v>
+        <v>5365</v>
       </c>
       <c r="J110" t="n">
         <v>40.6779661016949</v>
@@ -9207,7 +9207,7 @@
         <v>2197.4</v>
       </c>
       <c r="N110" t="n">
-        <v>5068</v>
+        <v>4490</v>
       </c>
       <c r="O110" t="n">
         <v>1792183</v>
@@ -9271,13 +9271,13 @@
         <v>365</v>
       </c>
       <c r="G111" t="n">
-        <v>1413.16646286749</v>
+        <v>1350.83166172185</v>
       </c>
       <c r="H111" t="n">
         <v>15500</v>
       </c>
       <c r="I111" t="n">
-        <v>6615.85172</v>
+        <v>5365</v>
       </c>
       <c r="J111" t="n">
         <v>40.6779661016949</v>
@@ -9292,7 +9292,7 @@
         <v>2197.4</v>
       </c>
       <c r="N111" t="n">
-        <v>5068</v>
+        <v>4490</v>
       </c>
       <c r="O111" t="n">
         <v>1792183</v>
@@ -9356,13 +9356,13 @@
         <v>365</v>
       </c>
       <c r="G112" t="n">
-        <v>1413.16646286749</v>
+        <v>1350.83166172185</v>
       </c>
       <c r="H112" t="n">
         <v>15500</v>
       </c>
       <c r="I112" t="n">
-        <v>6615.85172</v>
+        <v>5365</v>
       </c>
       <c r="J112" t="n">
         <v>40.6779661016949</v>
@@ -9377,7 +9377,7 @@
         <v>2197.4</v>
       </c>
       <c r="N112" t="n">
-        <v>5068</v>
+        <v>4490</v>
       </c>
       <c r="O112" t="n">
         <v>1792183</v>
@@ -10073,7 +10073,7 @@
         <v>0.27</v>
       </c>
       <c r="G121" t="n">
-        <v>0.346497318637259</v>
+        <v>0.346251330092561</v>
       </c>
       <c r="H121" t="n">
         <v>3.2</v>
@@ -10316,13 +10316,13 @@
         <v>320</v>
       </c>
       <c r="G124" t="n">
-        <v>1406.81368848637</v>
+        <v>1345.51780069316</v>
       </c>
       <c r="H124" t="n">
         <v>15500</v>
       </c>
       <c r="I124" t="n">
-        <v>6514.41065</v>
+        <v>5500</v>
       </c>
       <c r="J124" t="n">
         <v>40</v>
@@ -10337,7 +10337,7 @@
         <v>2000</v>
       </c>
       <c r="N124" t="n">
-        <v>5410</v>
+        <v>5020</v>
       </c>
       <c r="O124" t="n">
         <v>1792183</v>
@@ -10401,13 +10401,13 @@
         <v>320</v>
       </c>
       <c r="G125" t="n">
-        <v>1406.81368848637</v>
+        <v>1345.51780069316</v>
       </c>
       <c r="H125" t="n">
         <v>15500</v>
       </c>
       <c r="I125" t="n">
-        <v>6514.41065</v>
+        <v>5500</v>
       </c>
       <c r="J125" t="n">
         <v>40</v>
@@ -10422,7 +10422,7 @@
         <v>2000</v>
       </c>
       <c r="N125" t="n">
-        <v>5410</v>
+        <v>5020</v>
       </c>
       <c r="O125" t="n">
         <v>1792183</v>
@@ -10486,13 +10486,13 @@
         <v>320</v>
       </c>
       <c r="G126" t="n">
-        <v>1406.81368848637</v>
+        <v>1345.51780069316</v>
       </c>
       <c r="H126" t="n">
         <v>15500</v>
       </c>
       <c r="I126" t="n">
-        <v>6514.41065</v>
+        <v>5500</v>
       </c>
       <c r="J126" t="n">
         <v>40</v>
@@ -10507,7 +10507,7 @@
         <v>2000</v>
       </c>
       <c r="N126" t="n">
-        <v>5410</v>
+        <v>5020</v>
       </c>
       <c r="O126" t="n">
         <v>1792183</v>
@@ -10571,13 +10571,13 @@
         <v>320</v>
       </c>
       <c r="G127" t="n">
-        <v>1406.81368848637</v>
+        <v>1345.51780069316</v>
       </c>
       <c r="H127" t="n">
         <v>15500</v>
       </c>
       <c r="I127" t="n">
-        <v>6514.41065</v>
+        <v>5500</v>
       </c>
       <c r="J127" t="n">
         <v>40</v>
@@ -10592,7 +10592,7 @@
         <v>2000</v>
       </c>
       <c r="N127" t="n">
-        <v>5410</v>
+        <v>5020</v>
       </c>
       <c r="O127" t="n">
         <v>1792183</v>
@@ -10656,7 +10656,7 @@
         <v>0.03243</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0321633852600328</v>
+        <v>0.0321700633500733</v>
       </c>
       <c r="H128" t="n">
         <v>0.0662900496196034</v>
@@ -10737,7 +10737,7 @@
         <v>0.03243</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0321633852600328</v>
+        <v>0.0321700633500733</v>
       </c>
       <c r="H129" t="n">
         <v>0.0662900496196034</v>
@@ -11288,7 +11288,7 @@
         <v>0.25</v>
       </c>
       <c r="G136" t="n">
-        <v>0.342553359671076</v>
+        <v>0.342178210362842</v>
       </c>
       <c r="H136" t="n">
         <v>3.2</v>
@@ -11871,7 +11871,7 @@
         <v>0.02926</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0319962371047883</v>
+        <v>0.0320076235802917</v>
       </c>
       <c r="H143" t="n">
         <v>0.116299312161874</v>
@@ -11952,7 +11952,7 @@
         <v>0.02926</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0319962371047883</v>
+        <v>0.0320076235802917</v>
       </c>
       <c r="H144" t="n">
         <v>0.116299312161874</v>
@@ -12191,7 +12191,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>0.640175041563165</v>
+        <v>0.640203343998376</v>
       </c>
       <c r="H147" t="n">
         <v>1.767</v>
@@ -12268,7 +12268,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>0.640175041563165</v>
+        <v>0.640203343998376</v>
       </c>
       <c r="H148" t="n">
         <v>1.767</v>
@@ -12503,7 +12503,7 @@
         <v>0.3</v>
       </c>
       <c r="G151" t="n">
-        <v>0.430231931099648</v>
+        <v>0.429856781791413</v>
       </c>
       <c r="H151" t="n">
         <v>3.2</v>
@@ -12584,7 +12584,7 @@
         <v>0.0315</v>
       </c>
       <c r="G152" t="n">
-        <v>0.032153496378364</v>
+        <v>0.0321536655322381</v>
       </c>
       <c r="H152" t="n">
         <v>0.129</v>
@@ -12665,7 +12665,7 @@
         <v>0.0315</v>
       </c>
       <c r="G153" t="n">
-        <v>0.032153496378364</v>
+        <v>0.0321536655322381</v>
       </c>
       <c r="H153" t="n">
         <v>0.129</v>
@@ -13086,7 +13086,7 @@
         <v>0.02529</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0311454509265807</v>
+        <v>0.0311597385128532</v>
       </c>
       <c r="H158" t="n">
         <v>0.162708672100492</v>
@@ -13167,7 +13167,7 @@
         <v>0.02529</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0311454509265807</v>
+        <v>0.0311597385128532</v>
       </c>
       <c r="H159" t="n">
         <v>0.162708672100492</v>
@@ -13406,7 +13406,7 @@
         <v>0.5185</v>
       </c>
       <c r="G162" t="n">
-        <v>0.592888790870446</v>
+        <v>0.592916621598403</v>
       </c>
       <c r="H162" t="n">
         <v>1.571</v>
@@ -13483,7 +13483,7 @@
         <v>0.5185</v>
       </c>
       <c r="G163" t="n">
-        <v>0.592888790870446</v>
+        <v>0.592916621598403</v>
       </c>
       <c r="H163" t="n">
         <v>1.571</v>
@@ -13718,7 +13718,7 @@
         <v>0.35</v>
       </c>
       <c r="G166" t="n">
-        <v>0.503267645385362</v>
+        <v>0.502892496077127</v>
       </c>
       <c r="H166" t="n">
         <v>3.2</v>
@@ -13799,7 +13799,7 @@
         <v>0.028</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0297832166559634</v>
+        <v>0.0297833886768523</v>
       </c>
       <c r="H167" t="n">
         <v>0.129</v>
@@ -13880,7 +13880,7 @@
         <v>0.028</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0297832166559634</v>
+        <v>0.0297833886768523</v>
       </c>
       <c r="H168" t="n">
         <v>0.129</v>
@@ -14301,7 +14301,7 @@
         <v>0.02163</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0283326356444038</v>
+        <v>0.0283471783661455</v>
       </c>
       <c r="H173" t="n">
         <v>0.162708672100492</v>
@@ -14382,7 +14382,7 @@
         <v>0.02163</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0283326356444038</v>
+        <v>0.0283471783661455</v>
       </c>
       <c r="H174" t="n">
         <v>0.162708672100492</v>
@@ -14621,7 +14621,7 @@
         <v>0.481</v>
       </c>
       <c r="G177" t="n">
-        <v>0.57785300766486</v>
+        <v>0.577881310100071</v>
       </c>
       <c r="H177" t="n">
         <v>1.571</v>
@@ -14698,7 +14698,7 @@
         <v>0.481</v>
       </c>
       <c r="G178" t="n">
-        <v>0.57785300766486</v>
+        <v>0.577881310100071</v>
       </c>
       <c r="H178" t="n">
         <v>1.571</v>
@@ -14933,7 +14933,7 @@
         <v>0.4</v>
       </c>
       <c r="G181" t="n">
-        <v>0.504402978674937</v>
+        <v>0.504071337381382</v>
       </c>
       <c r="H181" t="n">
         <v>2.1</v>
@@ -15011,10 +15011,10 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.02321</v>
+        <v>0.02322</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0263287207180073</v>
+        <v>0.0263299011925891</v>
       </c>
       <c r="H182" t="n">
         <v>0.129</v>
@@ -15025,7 +15025,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.0256</v>
+        <v>0.02561</v>
       </c>
       <c r="M182" t="n">
         <v>0.03347</v>
@@ -15092,10 +15092,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.02321</v>
+        <v>0.02322</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0263287207180073</v>
+        <v>0.0263299011925891</v>
       </c>
       <c r="H183" t="n">
         <v>0.129</v>
@@ -15106,7 +15106,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
-        <v>0.0256</v>
+        <v>0.02561</v>
       </c>
       <c r="M183" t="n">
         <v>0.03347</v>
@@ -15516,7 +15516,7 @@
         <v>0.02529</v>
       </c>
       <c r="G188" t="n">
-        <v>0.035640674898173</v>
+        <v>0.0356552176199147</v>
       </c>
       <c r="H188" t="n">
         <v>0.2248027605144</v>
@@ -15597,7 +15597,7 @@
         <v>0.02529</v>
       </c>
       <c r="G189" t="n">
-        <v>0.035640674898173</v>
+        <v>0.0356552176199147</v>
       </c>
       <c r="H189" t="n">
         <v>0.2248027605144</v>
@@ -15836,7 +15836,7 @@
         <v>0.508</v>
       </c>
       <c r="G192" t="n">
-        <v>0.586768261902148</v>
+        <v>0.5867965643373591</v>
       </c>
       <c r="H192" t="n">
         <v>1.571</v>
@@ -15913,7 +15913,7 @@
         <v>0.508</v>
       </c>
       <c r="G193" t="n">
-        <v>0.586768261902148</v>
+        <v>0.5867965643373591</v>
       </c>
       <c r="H193" t="n">
         <v>1.571</v>
@@ -16302,7 +16302,7 @@
         <v>0.475</v>
       </c>
       <c r="G198" t="n">
-        <v>0.5786167794975851</v>
+        <v>0.5784523930712659</v>
       </c>
       <c r="H198" t="n">
         <v>2.1</v>
@@ -16383,7 +16383,7 @@
         <v>0.023</v>
       </c>
       <c r="G199" t="n">
-        <v>0.025498212243431</v>
+        <v>0.0254993927180128</v>
       </c>
       <c r="H199" t="n">
         <v>0.129</v>
@@ -16394,7 +16394,7 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
-        <v>0.0256</v>
+        <v>0.02561</v>
       </c>
       <c r="M199" t="n">
         <v>0.033</v>
@@ -16464,7 +16464,7 @@
         <v>0.023</v>
       </c>
       <c r="G200" t="n">
-        <v>0.025498212243431</v>
+        <v>0.0254993927180128</v>
       </c>
       <c r="H200" t="n">
         <v>0.129</v>
@@ -16475,7 +16475,7 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>0.0256</v>
+        <v>0.02561</v>
       </c>
       <c r="M200" t="n">
         <v>0.033</v>
@@ -16885,7 +16885,7 @@
         <v>0.03575</v>
       </c>
       <c r="G205" t="n">
-        <v>0.046086862930554</v>
+        <v>0.046094627715921</v>
       </c>
       <c r="H205" t="n">
         <v>0.2248027605144</v>
@@ -16966,7 +16966,7 @@
         <v>0.03575</v>
       </c>
       <c r="G206" t="n">
-        <v>0.046086862930554</v>
+        <v>0.046094627715921</v>
       </c>
       <c r="H206" t="n">
         <v>0.2248027605144</v>
@@ -17205,7 +17205,7 @@
         <v>0.531</v>
       </c>
       <c r="G209" t="n">
-        <v>0.615412329698758</v>
+        <v>0.615440632133969</v>
       </c>
       <c r="H209" t="n">
         <v>1.571</v>
@@ -17282,7 +17282,7 @@
         <v>0.531</v>
       </c>
       <c r="G210" t="n">
-        <v>0.615412329698758</v>
+        <v>0.615440632133969</v>
       </c>
       <c r="H210" t="n">
         <v>1.571</v>
@@ -17752,7 +17752,7 @@
         <v>0.022</v>
       </c>
       <c r="G216" t="n">
-        <v>0.0224812630908886</v>
+        <v>0.0224824435654704</v>
       </c>
       <c r="H216" t="n">
         <v>0.05</v>
@@ -17833,7 +17833,7 @@
         <v>0.022</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0224812630908886</v>
+        <v>0.0224824435654704</v>
       </c>
       <c r="H217" t="n">
         <v>0.05</v>
@@ -18254,7 +18254,7 @@
         <v>0.03447</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0441821090836661</v>
+        <v>0.0441851156893723</v>
       </c>
       <c r="H222" t="n">
         <v>0.2248027605144</v>
@@ -18335,7 +18335,7 @@
         <v>0.03447</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0441821090836661</v>
+        <v>0.0441851156893723</v>
       </c>
       <c r="H223" t="n">
         <v>0.2248027605144</v>
@@ -19121,7 +19121,7 @@
         <v>0.02</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0196302498247558</v>
+        <v>0.0196312582784486</v>
       </c>
       <c r="H233" t="n">
         <v>0.05</v>
@@ -19202,7 +19202,7 @@
         <v>0.02</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0196302498247558</v>
+        <v>0.0196312582784486</v>
       </c>
       <c r="H234" t="n">
         <v>0.05</v>
@@ -20490,7 +20490,7 @@
         <v>0.018</v>
       </c>
       <c r="G250" t="n">
-        <v>0.0177197456610099</v>
+        <v>0.0177207373071412</v>
       </c>
       <c r="H250" t="n">
         <v>0.05</v>
@@ -20571,7 +20571,7 @@
         <v>0.018</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0177197456610099</v>
+        <v>0.0177207373071412</v>
       </c>
       <c r="H251" t="n">
         <v>0.05</v>
@@ -20992,7 +20992,7 @@
         <v>0.02984</v>
       </c>
       <c r="G256" t="n">
-        <v>0.0384515295366367</v>
+        <v>0.0384751809519535</v>
       </c>
       <c r="H256" t="n">
         <v>0.2248027605144</v>
@@ -21003,7 +21003,7 @@
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
-        <v>0.02258</v>
+        <v>0.02283</v>
       </c>
       <c r="M256" t="n">
         <v>0.06661</v>
@@ -21073,7 +21073,7 @@
         <v>0.02984</v>
       </c>
       <c r="G257" t="n">
-        <v>0.0384515295366367</v>
+        <v>0.0384751809519535</v>
       </c>
       <c r="H257" t="n">
         <v>0.2248027605144</v>
@@ -21084,7 +21084,7 @@
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
-        <v>0.02258</v>
+        <v>0.02283</v>
       </c>
       <c r="M257" t="n">
         <v>0.06661</v>
@@ -21154,7 +21154,7 @@
         <v>0.44</v>
       </c>
       <c r="G258" t="n">
-        <v>0.502197177352306</v>
+        <v>0.502219922619336</v>
       </c>
       <c r="H258" t="n">
         <v>1.14</v>
@@ -21235,7 +21235,7 @@
         <v>0.44</v>
       </c>
       <c r="G259" t="n">
-        <v>0.502197177352306</v>
+        <v>0.502219922619336</v>
       </c>
       <c r="H259" t="n">
         <v>1.14</v>
@@ -21312,7 +21312,7 @@
         <v>0.5375</v>
       </c>
       <c r="G260" t="n">
-        <v>0.583094171668716</v>
+        <v>0.583121991596377</v>
       </c>
       <c r="H260" t="n">
         <v>1.244</v>
@@ -21389,7 +21389,7 @@
         <v>0.5375</v>
       </c>
       <c r="G261" t="n">
-        <v>0.583094171668716</v>
+        <v>0.583121991596377</v>
       </c>
       <c r="H261" t="n">
         <v>1.244</v>
@@ -21859,7 +21859,7 @@
         <v>0.017</v>
       </c>
       <c r="G267" t="n">
-        <v>0.0180431657574413</v>
+        <v>0.0180448560597759</v>
       </c>
       <c r="H267" t="n">
         <v>0.078</v>
@@ -21940,7 +21940,7 @@
         <v>0.017</v>
       </c>
       <c r="G268" t="n">
-        <v>0.0180431657574413</v>
+        <v>0.0180448560597759</v>
       </c>
       <c r="H268" t="n">
         <v>0.078</v>
@@ -22358,10 +22358,10 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0.02229</v>
+        <v>0.02252</v>
       </c>
       <c r="G273" t="n">
-        <v>0.0322955145694067</v>
+        <v>0.0323401653148127</v>
       </c>
       <c r="H273" t="n">
         <v>0.163184535648794</v>
@@ -22372,7 +22372,7 @@
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
-        <v>0.02086</v>
+        <v>0.02126</v>
       </c>
       <c r="M273" t="n">
         <v>0.0566</v>
@@ -22439,10 +22439,10 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>0.02229</v>
+        <v>0.02252</v>
       </c>
       <c r="G274" t="n">
-        <v>0.0322955145694067</v>
+        <v>0.0323401653148127</v>
       </c>
       <c r="H274" t="n">
         <v>0.163184535648794</v>
@@ -22453,7 +22453,7 @@
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
-        <v>0.02086</v>
+        <v>0.02126</v>
       </c>
       <c r="M274" t="n">
         <v>0.0566</v>
@@ -22523,7 +22523,7 @@
         <v>0.44</v>
       </c>
       <c r="G275" t="n">
-        <v>0.522013244711274</v>
+        <v>0.52205920505532</v>
       </c>
       <c r="H275" t="n">
         <v>1.27</v>
@@ -22604,7 +22604,7 @@
         <v>0.44</v>
       </c>
       <c r="G276" t="n">
-        <v>0.522013244711274</v>
+        <v>0.52205920505532</v>
       </c>
       <c r="H276" t="n">
         <v>1.27</v>
@@ -22681,7 +22681,7 @@
         <v>0.5315</v>
       </c>
       <c r="G277" t="n">
-        <v>0.599330661130751</v>
+        <v>0.599386163784538</v>
       </c>
       <c r="H277" t="n">
         <v>1.34</v>
@@ -22758,7 +22758,7 @@
         <v>0.5315</v>
       </c>
       <c r="G278" t="n">
-        <v>0.599330661130751</v>
+        <v>0.599386163784538</v>
       </c>
       <c r="H278" t="n">
         <v>1.34</v>
@@ -23228,7 +23228,7 @@
         <v>0.02</v>
       </c>
       <c r="G284" t="n">
-        <v>0.0182431657574413</v>
+        <v>0.0182448560597759</v>
       </c>
       <c r="H284" t="n">
         <v>0.078</v>
@@ -23309,7 +23309,7 @@
         <v>0.02</v>
       </c>
       <c r="G285" t="n">
-        <v>0.0182431657574413</v>
+        <v>0.0182448560597759</v>
       </c>
       <c r="H285" t="n">
         <v>0.078</v>
@@ -23727,10 +23727,10 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0.02179</v>
+        <v>0.02204</v>
       </c>
       <c r="G290" t="n">
-        <v>0.0319601311058098</v>
+        <v>0.0320032421703398</v>
       </c>
       <c r="H290" t="n">
         <v>0.335840328509551</v>
@@ -23741,10 +23741,10 @@
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
-        <v>0.02086</v>
+        <v>0.02126</v>
       </c>
       <c r="M290" t="n">
-        <v>0.0479</v>
+        <v>0.04837</v>
       </c>
       <c r="N290" t="n">
         <v>0.06591</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>0.02179</v>
+        <v>0.02204</v>
       </c>
       <c r="G291" t="n">
-        <v>0.0319601311058098</v>
+        <v>0.0320032421703398</v>
       </c>
       <c r="H291" t="n">
         <v>0.335840328509551</v>
@@ -23822,10 +23822,10 @@
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
-        <v>0.02086</v>
+        <v>0.02126</v>
       </c>
       <c r="M291" t="n">
-        <v>0.0479</v>
+        <v>0.04837</v>
       </c>
       <c r="N291" t="n">
         <v>0.06591</v>
@@ -23892,7 +23892,7 @@
         <v>0.52985</v>
       </c>
       <c r="G292" t="n">
-        <v>0.544863244711274</v>
+        <v>0.544909205055319</v>
       </c>
       <c r="H292" t="n">
         <v>1.28</v>
@@ -23973,7 +23973,7 @@
         <v>0.52985</v>
       </c>
       <c r="G293" t="n">
-        <v>0.544863244711274</v>
+        <v>0.544909205055319</v>
       </c>
       <c r="H293" t="n">
         <v>1.28</v>
@@ -24050,7 +24050,7 @@
         <v>0.5765</v>
       </c>
       <c r="G294" t="n">
-        <v>0.613347327797417</v>
+        <v>0.613402830451205</v>
       </c>
       <c r="H294" t="n">
         <v>1.37</v>
@@ -24127,7 +24127,7 @@
         <v>0.5765</v>
       </c>
       <c r="G295" t="n">
-        <v>0.613347327797417</v>
+        <v>0.613402830451205</v>
       </c>
       <c r="H295" t="n">
         <v>1.37</v>
@@ -24597,7 +24597,7 @@
         <v>0.02</v>
       </c>
       <c r="G301" t="n">
-        <v>0.0183098324241079</v>
+        <v>0.0183115227264425</v>
       </c>
       <c r="H301" t="n">
         <v>0.078</v>
@@ -24678,7 +24678,7 @@
         <v>0.02</v>
       </c>
       <c r="G302" t="n">
-        <v>0.0183098324241079</v>
+        <v>0.0183115227264425</v>
       </c>
       <c r="H302" t="n">
         <v>0.078</v>
@@ -25099,7 +25099,7 @@
         <v>0.02339</v>
       </c>
       <c r="G307" t="n">
-        <v>0.0362215044292352</v>
+        <v>0.0362679898493818</v>
       </c>
       <c r="H307" t="n">
         <v>0.335840328509551</v>
@@ -25180,7 +25180,7 @@
         <v>0.02339</v>
       </c>
       <c r="G308" t="n">
-        <v>0.0362215044292352</v>
+        <v>0.0362679898493818</v>
       </c>
       <c r="H308" t="n">
         <v>0.335840328509551</v>
@@ -25261,7 +25261,7 @@
         <v>0.57025</v>
       </c>
       <c r="G309" t="n">
-        <v>0.5517084973142919</v>
+        <v>0.551777693269125</v>
       </c>
       <c r="H309" t="n">
         <v>1.28</v>
@@ -25342,7 +25342,7 @@
         <v>0.57025</v>
       </c>
       <c r="G310" t="n">
-        <v>0.5517084973142919</v>
+        <v>0.551777693269125</v>
       </c>
       <c r="H310" t="n">
         <v>1.28</v>
@@ -25419,7 +25419,7 @@
         <v>0.628</v>
       </c>
       <c r="G311" t="n">
-        <v>0.610213994464084</v>
+        <v>0.610269497117872</v>
       </c>
       <c r="H311" t="n">
         <v>1.37</v>
@@ -25496,7 +25496,7 @@
         <v>0.628</v>
       </c>
       <c r="G312" t="n">
-        <v>0.610213994464084</v>
+        <v>0.610269497117872</v>
       </c>
       <c r="H312" t="n">
         <v>1.37</v>
@@ -25885,7 +25885,7 @@
         <v>0.3</v>
       </c>
       <c r="G317" t="n">
-        <v>0.369631787536143</v>
+        <v>0.369605326029721</v>
       </c>
       <c r="H317" t="n">
         <v>1.2</v>
@@ -25966,7 +25966,7 @@
         <v>0.021</v>
       </c>
       <c r="G318" t="n">
-        <v>0.0196431657574412</v>
+        <v>0.0196448560597759</v>
       </c>
       <c r="H318" t="n">
         <v>0.078</v>
@@ -26047,7 +26047,7 @@
         <v>0.021</v>
       </c>
       <c r="G319" t="n">
-        <v>0.0196431657574412</v>
+        <v>0.0196448560597759</v>
       </c>
       <c r="H319" t="n">
         <v>0.078</v>
@@ -26468,7 +26468,7 @@
         <v>0.02712</v>
       </c>
       <c r="G324" t="n">
-        <v>0.039903714362041</v>
+        <v>0.0399554511982778</v>
       </c>
       <c r="H324" t="n">
         <v>0.335840328509551</v>
@@ -26549,7 +26549,7 @@
         <v>0.02712</v>
       </c>
       <c r="G325" t="n">
-        <v>0.039903714362041</v>
+        <v>0.0399554511982778</v>
       </c>
       <c r="H325" t="n">
         <v>0.335840328509551</v>
@@ -26630,7 +26630,7 @@
         <v>0.5595</v>
       </c>
       <c r="G326" t="n">
-        <v>0.564686830647625</v>
+        <v>0.564756026602459</v>
       </c>
       <c r="H326" t="n">
         <v>1.51</v>
@@ -26711,7 +26711,7 @@
         <v>0.5595</v>
       </c>
       <c r="G327" t="n">
-        <v>0.564686830647625</v>
+        <v>0.564756026602459</v>
       </c>
       <c r="H327" t="n">
         <v>1.51</v>
@@ -26788,7 +26788,7 @@
         <v>0.6335</v>
       </c>
       <c r="G328" t="n">
-        <v>0.628013994464084</v>
+        <v>0.628069497117872</v>
       </c>
       <c r="H328" t="n">
         <v>1.57</v>
@@ -26865,7 +26865,7 @@
         <v>0.6335</v>
       </c>
       <c r="G329" t="n">
-        <v>0.628013994464084</v>
+        <v>0.628069497117872</v>
       </c>
       <c r="H329" t="n">
         <v>1.57</v>
@@ -27254,7 +27254,7 @@
         <v>0.35</v>
       </c>
       <c r="G334" t="n">
-        <v>0.359201080650601</v>
+        <v>0.359172999051949</v>
       </c>
       <c r="H334" t="n">
         <v>0.98</v>
@@ -27335,7 +27335,7 @@
         <v>0.021</v>
       </c>
       <c r="G335" t="n">
-        <v>0.0202687921628703</v>
+        <v>0.0202705407514923</v>
       </c>
       <c r="H335" t="n">
         <v>0.078</v>
@@ -27416,7 +27416,7 @@
         <v>0.021</v>
       </c>
       <c r="G336" t="n">
-        <v>0.0202687921628703</v>
+        <v>0.0202705407514923</v>
       </c>
       <c r="H336" t="n">
         <v>0.078</v>
@@ -27837,7 +27837,7 @@
         <v>0.03057</v>
       </c>
       <c r="G341" t="n">
-        <v>0.0431271198094838</v>
+        <v>0.0431573305578377</v>
       </c>
       <c r="H341" t="n">
         <v>0.335840328509551</v>
@@ -27918,7 +27918,7 @@
         <v>0.03057</v>
       </c>
       <c r="G342" t="n">
-        <v>0.0431271198094838</v>
+        <v>0.0431573305578377</v>
       </c>
       <c r="H342" t="n">
         <v>0.335840328509551</v>
@@ -27999,7 +27999,7 @@
         <v>0.5175</v>
       </c>
       <c r="G343" t="n">
-        <v>0.572451365477916</v>
+        <v>0.5724994179135759</v>
       </c>
       <c r="H343" t="n">
         <v>1.51</v>
@@ -28080,7 +28080,7 @@
         <v>0.5175</v>
       </c>
       <c r="G344" t="n">
-        <v>0.572451365477916</v>
+        <v>0.5724994179135759</v>
       </c>
       <c r="H344" t="n">
         <v>1.51</v>
@@ -28157,7 +28157,7 @@
         <v>0.581</v>
       </c>
       <c r="G345" t="n">
-        <v>0.641630328266476</v>
+        <v>0.64165848019135</v>
       </c>
       <c r="H345" t="n">
         <v>1.57</v>
@@ -28234,7 +28234,7 @@
         <v>0.581</v>
       </c>
       <c r="G346" t="n">
-        <v>0.641630328266476</v>
+        <v>0.64165848019135</v>
       </c>
       <c r="H346" t="n">
         <v>1.57</v>
@@ -28623,7 +28623,7 @@
         <v>0.34</v>
       </c>
       <c r="G351" t="n">
-        <v>0.376997225507159</v>
+        <v>0.376971263274444</v>
       </c>
       <c r="H351" t="n">
         <v>1.1</v>
@@ -29206,7 +29206,7 @@
         <v>0.03008</v>
       </c>
       <c r="G358" t="n">
-        <v>0.0435199673964699</v>
+        <v>0.0435281444575807</v>
       </c>
       <c r="H358" t="n">
         <v>0.335840328509551</v>
@@ -29287,7 +29287,7 @@
         <v>0.03008</v>
       </c>
       <c r="G359" t="n">
-        <v>0.0435199673964699</v>
+        <v>0.0435281444575807</v>
       </c>
       <c r="H359" t="n">
         <v>0.335840328509551</v>
@@ -29368,7 +29368,7 @@
         <v>0.496</v>
       </c>
       <c r="G360" t="n">
-        <v>0.527231844845281</v>
+        <v>0.527256303382954</v>
       </c>
       <c r="H360" t="n">
         <v>1.51</v>
@@ -29449,7 +29449,7 @@
         <v>0.496</v>
       </c>
       <c r="G361" t="n">
-        <v>0.527231844845281</v>
+        <v>0.527256303382954</v>
       </c>
       <c r="H361" t="n">
         <v>1.51</v>
@@ -29992,7 +29992,7 @@
         <v>0.32</v>
       </c>
       <c r="G368" t="n">
-        <v>0.364631787536143</v>
+        <v>0.364605326029721</v>
       </c>
       <c r="H368" t="n">
         <v>1.1</v>
@@ -30575,7 +30575,7 @@
         <v>0.02955</v>
       </c>
       <c r="G375" t="n">
-        <v>0.0359663371744494</v>
+        <v>0.0359745142355603</v>
       </c>
       <c r="H375" t="n">
         <v>0.1157346472659</v>
@@ -30656,7 +30656,7 @@
         <v>0.02955</v>
       </c>
       <c r="G376" t="n">
-        <v>0.0359663371744494</v>
+        <v>0.0359745142355603</v>
       </c>
       <c r="H376" t="n">
         <v>0.1157346472659</v>
@@ -30737,7 +30737,7 @@
         <v>0.496</v>
       </c>
       <c r="G377" t="n">
-        <v>0.550354651862825</v>
+        <v>0.550379110400497</v>
       </c>
       <c r="H377" t="n">
         <v>1.51</v>
@@ -30818,7 +30818,7 @@
         <v>0.496</v>
       </c>
       <c r="G378" t="n">
-        <v>0.550354651862825</v>
+        <v>0.550379110400497</v>
       </c>
       <c r="H378" t="n">
         <v>1.51</v>
@@ -31331,6 +31331,1375 @@
         </is>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F385" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.348421116736186</v>
+      </c>
+      <c r="H385" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.8975</v>
+      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0.5915</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="O385" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P385" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q385" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S385" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T385" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U385" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0217894736842105</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.03495</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0.03088</v>
+      </c>
+      <c r="O386" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P386" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q386" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R386" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S386" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T386" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U386" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.0217894736842105</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.03495</v>
+      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0.03088</v>
+      </c>
+      <c r="O387" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P387" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R387" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S387" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T387" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U387" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>190</v>
+      </c>
+      <c r="G388" t="n">
+        <v>845.280701754386</v>
+      </c>
+      <c r="H388" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I388" t="n">
+        <v>4382</v>
+      </c>
+      <c r="J388" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K388" t="n">
+        <v>42.1052631578947</v>
+      </c>
+      <c r="L388" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M388" t="n">
+        <v>1381</v>
+      </c>
+      <c r="N388" t="n">
+        <v>2864</v>
+      </c>
+      <c r="O388" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P388" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q388" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R388" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S388" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T388" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U388" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>190</v>
+      </c>
+      <c r="G389" t="n">
+        <v>845.280701754386</v>
+      </c>
+      <c r="H389" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I389" t="n">
+        <v>4382</v>
+      </c>
+      <c r="J389" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K389" t="n">
+        <v>42.1052631578947</v>
+      </c>
+      <c r="L389" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M389" t="n">
+        <v>1381</v>
+      </c>
+      <c r="N389" t="n">
+        <v>2864</v>
+      </c>
+      <c r="O389" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P389" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q389" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R389" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S389" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T389" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U389" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>190</v>
+      </c>
+      <c r="G390" t="n">
+        <v>845.280701754386</v>
+      </c>
+      <c r="H390" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I390" t="n">
+        <v>4382</v>
+      </c>
+      <c r="J390" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K390" t="n">
+        <v>42.1052631578947</v>
+      </c>
+      <c r="L390" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M390" t="n">
+        <v>1381</v>
+      </c>
+      <c r="N390" t="n">
+        <v>2864</v>
+      </c>
+      <c r="O390" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P390" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S390" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T390" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U390" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>190</v>
+      </c>
+      <c r="G391" t="n">
+        <v>845.280701754386</v>
+      </c>
+      <c r="H391" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I391" t="n">
+        <v>4382</v>
+      </c>
+      <c r="J391" t="n">
+        <v>31.5789473684211</v>
+      </c>
+      <c r="K391" t="n">
+        <v>42.1052631578947</v>
+      </c>
+      <c r="L391" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M391" t="n">
+        <v>1381</v>
+      </c>
+      <c r="N391" t="n">
+        <v>2864</v>
+      </c>
+      <c r="O391" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P391" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S391" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T391" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U391" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>0.02755</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.0330503463097208</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.1157346472659</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.07671</v>
+      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>0.02304</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0.04836</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0.06822</v>
+      </c>
+      <c r="O392" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P392" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S392" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T392" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U392" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>0.02755</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.0330503463097208</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.1157346472659</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.07671</v>
+      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>0.02304</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0.04836</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0.06822</v>
+      </c>
+      <c r="O393" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P393" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S393" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T393" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U393" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.562614035087719</v>
+      </c>
+      <c r="H394" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I394" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>0.3115</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0.87578</v>
+      </c>
+      <c r="N394" t="n">
+        <v>1.1488</v>
+      </c>
+      <c r="O394" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P394" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q394" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R394" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S394" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T394" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U394" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.562614035087719</v>
+      </c>
+      <c r="H395" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I395" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>0.3115</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0.87578</v>
+      </c>
+      <c r="N395" t="n">
+        <v>1.1488</v>
+      </c>
+      <c r="O395" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P395" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>0.5685</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.6427586206896549</v>
+      </c>
+      <c r="H396" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1.3192</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="N396" t="n">
+        <v>1.19874</v>
+      </c>
+      <c r="O396" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P396" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>0.5685</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.6427586206896549</v>
+      </c>
+      <c r="H397" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1.3192</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0.96912</v>
+      </c>
+      <c r="N397" t="n">
+        <v>1.19874</v>
+      </c>
+      <c r="O397" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P397" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.893684210526316</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I398" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="M398" t="n">
+        <v>1.2143</v>
+      </c>
+      <c r="N398" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="O398" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P398" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.893684210526316</v>
+      </c>
+      <c r="H399" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I399" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="M399" t="n">
+        <v>1.2143</v>
+      </c>
+      <c r="N399" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="O399" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P399" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.0938245614035088</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0.13248</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0.20782</v>
+      </c>
+      <c r="O400" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P400" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Manawatu at Whirokino</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.0938245614035088</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0.13248</v>
+      </c>
+      <c r="N401" t="n">
+        <v>0.20782</v>
+      </c>
+      <c r="O401" t="n">
+        <v>1792183</v>
+      </c>
+      <c r="P401" t="n">
+        <v>5512989</v>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
+++ b/state_results/Rivers/ManawatuatWhirokino_a9c872df4b.xlsx
@@ -9101,7 +9101,7 @@
         <v>365</v>
       </c>
       <c r="G109" t="n">
-        <v>1350.83166172185</v>
+        <v>1330.94531703122</v>
       </c>
       <c r="H109" t="n">
         <v>15500</v>
@@ -9186,7 +9186,7 @@
         <v>365</v>
       </c>
       <c r="G110" t="n">
-        <v>1350.83166172185</v>
+        <v>1330.94531703122</v>
       </c>
       <c r="H110" t="n">
         <v>15500</v>
@@ -9271,7 +9271,7 @@
         <v>365</v>
       </c>
       <c r="G111" t="n">
-        <v>1350.83166172185</v>
+        <v>1330.94531703122</v>
       </c>
       <c r="H111" t="n">
         <v>15500</v>
@@ -9356,7 +9356,7 @@
         <v>365</v>
       </c>
       <c r="G112" t="n">
-        <v>1350.83166172185</v>
+        <v>1330.94531703122</v>
       </c>
       <c r="H112" t="n">
         <v>15500</v>
@@ -10316,7 +10316,7 @@
         <v>320</v>
       </c>
       <c r="G124" t="n">
-        <v>1345.51780069316</v>
+        <v>1325.9628950807</v>
       </c>
       <c r="H124" t="n">
         <v>15500</v>
@@ -10401,7 +10401,7 @@
         <v>320</v>
       </c>
       <c r="G125" t="n">
-        <v>1345.51780069316</v>
+        <v>1325.9628950807</v>
       </c>
       <c r="H125" t="n">
         <v>15500</v>
@@ -10486,7 +10486,7 @@
         <v>320</v>
       </c>
       <c r="G126" t="n">
-        <v>1345.51780069316</v>
+        <v>1325.9628950807</v>
       </c>
       <c r="H126" t="n">
         <v>15500</v>
@@ -10571,7 +10571,7 @@
         <v>320</v>
       </c>
       <c r="G127" t="n">
-        <v>1345.51780069316</v>
+        <v>1325.9628950807</v>
       </c>
       <c r="H127" t="n">
         <v>15500</v>
